--- a/data/data_for_mip_tech_paper/figures/search_results_20220803-online_exhib-sample.xlsx
+++ b/data/data_for_mip_tech_paper/figures/search_results_20220803-online_exhib-sample.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaballatore/Dropbox/DRBX_Docs/Work/Projects/github_projects/museums-in-the-pandemic/data/data_for_mip_tech_paper/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6161B07-2A16-BE41-A817-25ECBF89E4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2BDB49-0E6A-2F42-8FC7-8F7E247C094E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1646</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12739" uniqueCount="2779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12829" uniqueCount="2798">
   <si>
     <t>res</t>
   </si>
@@ -8793,6 +8795,63 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Scotland's best-known locations from the comfort of your sofa? Then check out our new</t>
+  </si>
+  <si>
+    <t>‘Old Ways New Roads’! Following in the footsteps of 18th-century travellers, it features paintings, prints, drawings, maps and more,</t>
+  </si>
+  <si>
+    <t>The Hepworth Wakefield is closed on Mondays and Tuesdays however you can visit our</t>
+  </si>
+  <si>
+    <t>with Google Arts \&amp; Culture. Zoom into Hepworth's sculptures - photographed in ultra-high   resolution using the latest Google technology</t>
+  </si>
+  <si>
+    <t>To mark the end of South Asian Heritage Month we have curated a new</t>
+  </si>
+  <si>
+    <t>, featuring all the items we have showcased over recent weeks.   To view the show please follow this link to</t>
+  </si>
+  <si>
+    <t>Happy International Women's day! Why not peruse our</t>
+  </si>
+  <si>
+    <t>about all the fantastic   women that have featured and worked on designing banknotes over the years \#IWD202</t>
+  </si>
+  <si>
+    <t>Discover an</t>
+  </si>
+  <si>
+    <t>for \#BlackHistoryMonth  - 'Pilots of the Caribbean : Volunteers of African Heritage in the Royal Air Force'</t>
+  </si>
+  <si>
+    <t>Join us this Friday to launch Museum of Colour with its first</t>
+  </si>
+  <si>
+    <t>'People of Letters'. Ten leading writers \&amp;amp; composer/musician @randolphinfo offer their  personal take on a chosen object</t>
+  </si>
+  <si>
+    <t>websites</t>
+  </si>
+  <si>
+    <t>Explore our recent</t>
+  </si>
+  <si>
+    <t>about the new £50 note featuring Alan Turing</t>
+  </si>
+  <si>
+    <t>Visit the</t>
+  </si>
+  <si>
+    <t>``Lockdown creativity''</t>
+  </si>
+  <si>
+    <t>visit us at Kirkleatham Museum, we have worked   with local artists to create our first</t>
+  </si>
+  <si>
+    <t>‘Living Through Lockdown’ which captures the stillness that came from lockdown and the rediscovery of the importance of nature</t>
   </si>
 </sst>
 </file>
@@ -8860,7 +8919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8880,6 +8939,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -55510,8 +55570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD76954-3E8E-7442-9CD8-98FA7E53A754}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -55689,4 +55749,460 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A3F6A8-706B-374B-AD69-DACB727C5EEE}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="107.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F344FBFB-359C-7A43-93D9-59C4385267E3}">
+  <dimension ref="B2:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2785</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2794</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2796</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>